--- a/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6057,19 +6060,19 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>-461</v>
+        <v>-179</v>
       </c>
       <c r="C218">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="D218">
-        <v>2606</v>
+        <v>2684</v>
       </c>
       <c r="E218">
         <v>-258</v>
       </c>
       <c r="F218">
-        <v>-2753</v>
+        <v>-2815</v>
       </c>
       <c r="G218">
         <v>-111</v>
@@ -6080,19 +6083,19 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>-591</v>
+        <v>-149</v>
       </c>
       <c r="C219">
-        <v>-60</v>
+        <v>11</v>
       </c>
       <c r="D219">
-        <v>-1418</v>
+        <v>-1031</v>
       </c>
       <c r="E219">
         <v>-300</v>
       </c>
       <c r="F219">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G219">
         <v>686</v>
@@ -6103,19 +6106,19 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>-1297</v>
+        <v>-590</v>
       </c>
       <c r="C220">
-        <v>-1327</v>
+        <v>-839</v>
       </c>
       <c r="D220">
-        <v>-662</v>
+        <v>-209</v>
       </c>
       <c r="E220">
         <v>-114</v>
       </c>
       <c r="F220">
-        <v>-75</v>
+        <v>-308</v>
       </c>
       <c r="G220">
         <v>880</v>
@@ -6126,19 +6129,19 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>-2110</v>
+        <v>-995</v>
       </c>
       <c r="C221">
-        <v>-3079</v>
+        <v>-3117</v>
       </c>
       <c r="D221">
-        <v>-3644</v>
+        <v>-3427</v>
       </c>
       <c r="E221">
         <v>-58</v>
       </c>
       <c r="F221">
-        <v>2562</v>
+        <v>3499</v>
       </c>
       <c r="G221">
         <v>2109</v>
@@ -6149,22 +6152,45 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>-2721</v>
+        <v>-1507</v>
       </c>
       <c r="C222">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D222">
-        <v>-8033</v>
+        <v>-7644</v>
       </c>
       <c r="E222">
         <v>40</v>
       </c>
       <c r="F222">
-        <v>-80</v>
+        <v>681</v>
       </c>
       <c r="G222">
         <v>4932</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223">
+        <v>-2293</v>
+      </c>
+      <c r="C223">
+        <v>-803</v>
+      </c>
+      <c r="D223">
+        <v>-642</v>
+      </c>
+      <c r="E223">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>1655</v>
+      </c>
+      <c r="G223">
+        <v>-2596</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6193,6 +6196,29 @@
         <v>-2596</v>
       </c>
     </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224">
+        <v>-3072</v>
+      </c>
+      <c r="C224">
+        <v>-498</v>
+      </c>
+      <c r="D224">
+        <v>-6078</v>
+      </c>
+      <c r="E224">
+        <v>58</v>
+      </c>
+      <c r="F224">
+        <v>-153</v>
+      </c>
+      <c r="G224">
+        <v>3599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6219,6 +6222,29 @@
         <v>3599</v>
       </c>
     </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225">
+        <v>-2528</v>
+      </c>
+      <c r="C225">
+        <v>-590</v>
+      </c>
+      <c r="D225">
+        <v>-3501</v>
+      </c>
+      <c r="E225">
+        <v>192</v>
+      </c>
+      <c r="F225">
+        <v>-1996</v>
+      </c>
+      <c r="G225">
+        <v>3368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6245,6 +6248,29 @@
         <v>3368</v>
       </c>
     </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226">
+        <v>-1826</v>
+      </c>
+      <c r="C226">
+        <v>1432</v>
+      </c>
+      <c r="D226">
+        <v>-5250</v>
+      </c>
+      <c r="E226">
+        <v>14</v>
+      </c>
+      <c r="F226">
+        <v>270</v>
+      </c>
+      <c r="G226">
+        <v>1709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
